--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jahe0003\Documents\GitHub\group4\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jahe0003\Documents\GitHub\group4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DD8E1E-CAC3-409E-A754-F54A4FEE2C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137793E-21D4-4904-99D9-12439F20E262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56323C84-709E-4261-9D5E-79FB32C8AA74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>GP0</t>
   </si>
@@ -255,6 +255,57 @@
   </si>
   <si>
     <t>Motor2 B-</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Pico</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Breadboard(big)</t>
+  </si>
+  <si>
+    <t>Breadboard(small)</t>
+  </si>
+  <si>
+    <t>DC motor</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>H-Bridge</t>
+  </si>
+  <si>
+    <t>L293D</t>
+  </si>
+  <si>
+    <t>Magnetic Buzzer</t>
+  </si>
+  <si>
+    <t>Battery holder</t>
+  </si>
+  <si>
+    <t>Ultrasonic sensor</t>
+  </si>
+  <si>
+    <t>HC-SR04</t>
+  </si>
+  <si>
+    <t>Gyroscope</t>
+  </si>
+  <si>
+    <t>Jump wires</t>
+  </si>
+  <si>
+    <t>MPU-6050</t>
   </si>
 </sst>
 </file>
@@ -626,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBA3ADA-71D1-4E70-AF96-DE1050C9A84F}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,15 +688,24 @@
     <col min="8" max="8" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>50</v>
       </c>
       <c r="H1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -655,8 +715,14 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -675,8 +741,14 @@
       <c r="I3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -695,8 +767,14 @@
       <c r="I4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -712,8 +790,17 @@
       <c r="I5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -726,8 +813,17 @@
       <c r="I6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -740,8 +836,14 @@
       <c r="I7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -754,8 +856,14 @@
       <c r="I8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -771,8 +879,17 @@
       <c r="I9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -788,8 +905,17 @@
       <c r="I10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -805,8 +931,14 @@
       <c r="I11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -823,7 +955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -837,7 +969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -851,7 +983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -865,7 +997,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1129,6 +1261,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Is_Collaboration_Space_Locked xmlns="80a390f3-b1f1-4c66-86e8-cdc1c820ecfc" xsi:nil="true"/>
@@ -1180,15 +1321,6 @@
     </Students>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1647,6 +1779,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F89249-B44E-4AB0-BC1D-22EC4FDBE203}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23CB273E-52A2-4A9C-AC5B-750DFDBB6A83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1659,14 +1799,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="80a390f3-b1f1-4c66-86e8-cdc1c820ecfc"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F89249-B44E-4AB0-BC1D-22EC4FDBE203}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
